--- a/reports.xlsx
+++ b/reports.xlsx
@@ -434,15 +434,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>15_02_22</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
+          <t>19_02_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -458,109 +454,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jimmy Kimmel</t>
+          <t>Shyam Chaturvedi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shyam Chaturvedi</t>
+          <t>Priya Sharma</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Priya Sharma</t>
+          <t>Ruchi Verma</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ruchi Verma</t>
-        </is>
+          <t>Robert Downey Jr</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Robert Downey Jr</t>
-        </is>
+          <t>Mark Ruffalo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mark Ruffalo</t>
-        </is>
+          <t>Jeremy Renner</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jeremy Renner</t>
-        </is>
+          <t>Chris Evans</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chris Evans</t>
-        </is>
+          <t>Chris Hemsworth</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chris Hemsworth</t>
-        </is>
+          <t>Jimmy Kimmel</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
